--- a/NCEI_test01.xlsx
+++ b/NCEI_test01.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20820" windowHeight="10060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="People &amp; Projects" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
   <si>
     <t>Can Add Multiple People</t>
   </si>
@@ -189,12 +189,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>institution</t>
-  </si>
-  <si>
-    <t>funding</t>
-  </si>
-  <si>
     <t>project</t>
   </si>
   <si>
@@ -222,9 +216,6 @@
     <t>datamethod</t>
   </si>
   <si>
-    <t>samplemethod</t>
-  </si>
-  <si>
     <t>abstract</t>
   </si>
   <si>
@@ -240,27 +231,18 @@
     <t>first2</t>
   </si>
   <si>
-    <t>middle2</t>
-  </si>
-  <si>
     <t>last2</t>
   </si>
   <si>
     <t>role2</t>
   </si>
   <si>
-    <t>email2</t>
-  </si>
-  <si>
     <t>Institution2</t>
   </si>
   <si>
     <t>funding2</t>
   </si>
   <si>
-    <t>project2</t>
-  </si>
-  <si>
     <t>ship2</t>
   </si>
   <si>
@@ -283,9 +265,6 @@
   </si>
   <si>
     <t>samplemethod2</t>
-  </si>
-  <si>
-    <t>datamethod2</t>
   </si>
   <si>
     <t>title</t>
@@ -779,7 +758,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -849,40 +828,25 @@
       <c r="E3" t="s">
         <v>54</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>55</v>
-      </c>
-      <c r="G3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12">
       <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G4" t="s">
         <v>72</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12"/>
@@ -1022,10 +986,10 @@
         <v>179.12344999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="39" customHeight="1">
@@ -1038,10 +1002,10 @@
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12">
@@ -1109,7 +1073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1172,48 +1136,42 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>61</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>62</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>63</v>
-      </c>
-      <c r="E3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1231,7 +1189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1281,19 +1239,19 @@
     </row>
     <row r="3" spans="1:5" ht="122.25" customHeight="1">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
         <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="37" customHeight="1">

--- a/NCEI_test01.xlsx
+++ b/NCEI_test01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20820" windowHeight="10060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20820" windowHeight="9880" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="People &amp; Projects" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t>Can Add Multiple People</t>
   </si>
@@ -192,9 +192,6 @@
     <t>project</t>
   </si>
   <si>
-    <t>ship</t>
-  </si>
-  <si>
     <t>sea</t>
   </si>
   <si>
@@ -244,9 +241,6 @@
   </si>
   <si>
     <t>ship2</t>
-  </si>
-  <si>
-    <t>sea2</t>
   </si>
   <si>
     <t>variable2</t>
@@ -758,7 +752,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -834,19 +828,19 @@
     </row>
     <row r="4" spans="1:8" ht="12">
       <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>69</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>70</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>71</v>
-      </c>
-      <c r="G4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12"/>
@@ -901,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -985,11 +979,8 @@
       <c r="F3">
         <v>179.12344999999999</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>56</v>
-      </c>
-      <c r="H3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="39" customHeight="1">
@@ -1002,10 +993,7 @@
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12">
@@ -1073,7 +1061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1136,42 +1124,42 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>60</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>61</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>62</v>
-      </c>
-      <c r="G3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>76</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>77</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>78</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1239,19 +1227,19 @@
     </row>
     <row r="3" spans="1:5" ht="122.25" customHeight="1">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
         <v>64</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>65</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="37" customHeight="1">

--- a/NCEI_test01.xlsx
+++ b/NCEI_test01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20820" windowHeight="9880" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20820" windowHeight="9880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="People &amp; Projects" sheetId="1" r:id="rId1"/>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -895,7 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1177,7 +1177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/NCEI_test01.xlsx
+++ b/NCEI_test01.xlsx
@@ -752,7 +752,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1061,7 +1061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1177,7 +1177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/NCEI_test01.xlsx
+++ b/NCEI_test01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20820" windowHeight="9880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20820" windowHeight="9880" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="People &amp; Projects" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
   <si>
     <t>Can Add Multiple People</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>2017-03-20</t>
+  </si>
+  <si>
+    <t>2017-03-24</t>
   </si>
 </sst>
 </file>
@@ -378,7 +384,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -399,7 +405,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -408,6 +413,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -751,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -765,14 +776,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" ht="70" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
@@ -895,12 +906,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="2" width="14.5" style="18"/>
     <col min="3" max="3" width="21.1640625" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
@@ -909,10 +921,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="116" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -935,10 +947,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="32" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -961,11 +973,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="47" customHeight="1">
-      <c r="A3" s="12">
-        <v>42815</v>
-      </c>
-      <c r="B3" s="12">
-        <v>42815</v>
+      <c r="A3" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="C3">
         <v>-89.123450000000005</v>
@@ -984,20 +996,20 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="39" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
       <c r="G4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12">
-      <c r="B7" s="2"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="12">
@@ -1007,7 +1019,7 @@
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="12">
-      <c r="B10" s="2"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="12">
@@ -1026,7 +1038,7 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="12">
-      <c r="B15" s="2"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
     </row>
@@ -1035,7 +1047,7 @@
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="12">
-      <c r="B17" s="2"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
     </row>
@@ -1243,13 +1255,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="37" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
